--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N2">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O2">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P2">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q2">
-        <v>51.30238096581211</v>
+        <v>52.55455556113125</v>
       </c>
       <c r="R2">
-        <v>51.30238096581211</v>
+        <v>210.218222244525</v>
       </c>
       <c r="S2">
-        <v>0.01036219637384944</v>
+        <v>0.008183216828079374</v>
       </c>
       <c r="T2">
-        <v>0.01036219637384944</v>
+        <v>0.004945817184927231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N3">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P3">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q3">
-        <v>8.389650932539961</v>
+        <v>9.3804591395625</v>
       </c>
       <c r="R3">
-        <v>8.389650932539961</v>
+        <v>56.28275483737499</v>
       </c>
       <c r="S3">
-        <v>0.001694564829826548</v>
+        <v>0.001460621829380503</v>
       </c>
       <c r="T3">
-        <v>0.001694564829826548</v>
+        <v>0.001324167872402343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N4">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O4">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P4">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q4">
-        <v>106.7655350407356</v>
+        <v>111.7102847075875</v>
       </c>
       <c r="R4">
-        <v>106.7655350407356</v>
+        <v>670.261708245525</v>
       </c>
       <c r="S4">
-        <v>0.02156479717361384</v>
+        <v>0.01739429573570141</v>
       </c>
       <c r="T4">
-        <v>0.02156479717361384</v>
+        <v>0.01576928888297521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N5">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O5">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P5">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q5">
-        <v>160.4550822469607</v>
+        <v>163.417298552475</v>
       </c>
       <c r="R5">
-        <v>160.4550822469607</v>
+        <v>980.5037913148498</v>
       </c>
       <c r="S5">
-        <v>0.03240915996731557</v>
+        <v>0.02544554269816566</v>
       </c>
       <c r="T5">
-        <v>0.03240915996731557</v>
+        <v>0.02306837366044555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N6">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O6">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P6">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q6">
-        <v>42.90998352700603</v>
+        <v>44.2571337602625</v>
       </c>
       <c r="R6">
-        <v>42.90998352700603</v>
+        <v>265.542802561575</v>
       </c>
       <c r="S6">
-        <v>0.008667076797113765</v>
+        <v>0.006891233650111839</v>
       </c>
       <c r="T6">
-        <v>0.008667076797113765</v>
+        <v>0.006247442025816015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N7">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O7">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P7">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q7">
-        <v>10.03683598226868</v>
+        <v>10.19879230899375</v>
       </c>
       <c r="R7">
-        <v>10.03683598226868</v>
+        <v>40.795169235975</v>
       </c>
       <c r="S7">
-        <v>0.00202726780828543</v>
+        <v>0.001588043661637764</v>
       </c>
       <c r="T7">
-        <v>0.00202726780828543</v>
+        <v>0.0009597904830277134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N8">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O8">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P8">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q8">
-        <v>81.55061445870993</v>
+        <v>96.036032656044</v>
       </c>
       <c r="R8">
-        <v>81.55061445870993</v>
+        <v>576.2161959362641</v>
       </c>
       <c r="S8">
-        <v>0.0164718179842837</v>
+        <v>0.01495367376133136</v>
       </c>
       <c r="T8">
-        <v>0.0164718179842837</v>
+        <v>0.01355667426765709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N9">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P9">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q9">
-        <v>13.33624630596893</v>
+        <v>17.14146510492</v>
       </c>
       <c r="R9">
-        <v>13.33624630596893</v>
+        <v>154.27318594428</v>
       </c>
       <c r="S9">
-        <v>0.002693691803594181</v>
+        <v>0.002669080238750236</v>
       </c>
       <c r="T9">
-        <v>0.002693691803594181</v>
+        <v>0.003629594837545375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N10">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O10">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P10">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q10">
-        <v>169.7152222113652</v>
+        <v>204.134778339336</v>
       </c>
       <c r="R10">
-        <v>169.7152222113652</v>
+        <v>1837.213005054024</v>
       </c>
       <c r="S10">
-        <v>0.03427954857217261</v>
+        <v>0.03178562039897023</v>
       </c>
       <c r="T10">
-        <v>0.03427954857217261</v>
+        <v>0.04322422459742139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N11">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O11">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P11">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q11">
-        <v>255.0604923966875</v>
+        <v>298.6220481323039</v>
       </c>
       <c r="R11">
-        <v>255.0604923966875</v>
+        <v>2687.598433190736</v>
       </c>
       <c r="S11">
-        <v>0.05151782158388503</v>
+        <v>0.04649813785732256</v>
       </c>
       <c r="T11">
-        <v>0.05151782158388503</v>
+        <v>0.06323129543735087</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N12">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O12">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P12">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q12">
-        <v>68.21000228766026</v>
+        <v>80.873665426008</v>
       </c>
       <c r="R12">
-        <v>68.21000228766026</v>
+        <v>727.862988834072</v>
       </c>
       <c r="S12">
-        <v>0.01377724435122163</v>
+        <v>0.0125927568561161</v>
       </c>
       <c r="T12">
-        <v>0.01377724435122163</v>
+        <v>0.01712447779270385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N13">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O13">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P13">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q13">
-        <v>15.95462288818047</v>
+        <v>18.636853471236</v>
       </c>
       <c r="R13">
-        <v>15.95462288818047</v>
+        <v>111.821120827416</v>
       </c>
       <c r="S13">
-        <v>0.003222558725845715</v>
+        <v>0.002901925652684278</v>
       </c>
       <c r="T13">
-        <v>0.003222558725845715</v>
+        <v>0.00263082246211157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N14">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O14">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P14">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q14">
-        <v>73.65249748245981</v>
+        <v>77.00808991065684</v>
       </c>
       <c r="R14">
-        <v>73.65249748245981</v>
+        <v>462.048539463941</v>
       </c>
       <c r="S14">
-        <v>0.01487653453835402</v>
+        <v>0.01199085199230961</v>
       </c>
       <c r="T14">
-        <v>0.01487653453835402</v>
+        <v>0.01087064471553348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N15">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P15">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q15">
-        <v>12.04464066881022</v>
+        <v>13.74516886518833</v>
       </c>
       <c r="R15">
-        <v>12.04464066881022</v>
+        <v>123.706519786695</v>
       </c>
       <c r="S15">
-        <v>0.00243280973539683</v>
+        <v>0.00214024637752984</v>
       </c>
       <c r="T15">
-        <v>0.00243280973539683</v>
+        <v>0.002910450982393423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N16">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O16">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P16">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q16">
-        <v>153.2784278772854</v>
+        <v>163.6888668709312</v>
       </c>
       <c r="R16">
-        <v>153.2784278772854</v>
+        <v>1473.199801838381</v>
       </c>
       <c r="S16">
-        <v>0.03095959952809584</v>
+        <v>0.0254878283270676</v>
       </c>
       <c r="T16">
-        <v>0.03095959952809584</v>
+        <v>0.03466006333308445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N17">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O17">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P17">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q17">
-        <v>230.3580714726986</v>
+        <v>239.4550555231593</v>
       </c>
       <c r="R17">
-        <v>230.3580714726986</v>
+        <v>2155.095499708434</v>
       </c>
       <c r="S17">
-        <v>0.04652835848870353</v>
+        <v>0.03728530512728818</v>
       </c>
       <c r="T17">
-        <v>0.04652835848870353</v>
+        <v>0.05070306581329161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N18">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O18">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P18">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q18">
-        <v>61.60391377938796</v>
+        <v>64.84989358979367</v>
       </c>
       <c r="R18">
-        <v>61.60391377938796</v>
+        <v>583.649042308143</v>
       </c>
       <c r="S18">
-        <v>0.01244292837802411</v>
+        <v>0.01009771150867922</v>
       </c>
       <c r="T18">
-        <v>0.01244292837802411</v>
+        <v>0.01373154730638064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N19">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O19">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P19">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q19">
-        <v>14.40942940657147</v>
+        <v>14.9442708957465</v>
       </c>
       <c r="R19">
-        <v>14.40942940657147</v>
+        <v>89.66562537447899</v>
       </c>
       <c r="S19">
-        <v>0.002910456285557521</v>
+        <v>0.002326957345024064</v>
       </c>
       <c r="T19">
-        <v>0.002910456285557521</v>
+        <v>0.002109568743086901</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N20">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O20">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P20">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q20">
-        <v>72.59041245946187</v>
+        <v>79.1590911923725</v>
       </c>
       <c r="R20">
-        <v>72.59041245946187</v>
+        <v>474.954547154235</v>
       </c>
       <c r="S20">
-        <v>0.01466201167670822</v>
+        <v>0.0123257822319019</v>
       </c>
       <c r="T20">
-        <v>0.01466201167670822</v>
+        <v>0.0111742851608856</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N21">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P21">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q21">
-        <v>11.87095433231116</v>
+        <v>14.129100941425</v>
       </c>
       <c r="R21">
-        <v>11.87095433231116</v>
+        <v>127.161908472825</v>
       </c>
       <c r="S21">
-        <v>0.002397728090210475</v>
+        <v>0.002200028053800413</v>
       </c>
       <c r="T21">
-        <v>0.002397728090210475</v>
+        <v>0.002991746126848533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N22">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O22">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P22">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q22">
-        <v>151.0681196302921</v>
+        <v>168.2610483501817</v>
       </c>
       <c r="R22">
-        <v>151.0681196302921</v>
+        <v>1514.349435151635</v>
       </c>
       <c r="S22">
-        <v>0.03051315537344059</v>
+        <v>0.02619975809267115</v>
       </c>
       <c r="T22">
-        <v>0.03051315537344059</v>
+        <v>0.03562819331449688</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N23">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O23">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P23">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q23">
-        <v>227.036258010825</v>
+        <v>246.14354931571</v>
       </c>
       <c r="R23">
-        <v>227.036258010825</v>
+        <v>2215.29194384139</v>
       </c>
       <c r="S23">
-        <v>0.04585740944576986</v>
+        <v>0.03832676374820715</v>
       </c>
       <c r="T23">
-        <v>0.04585740944576986</v>
+        <v>0.05211931129708215</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N24">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O24">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P24">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q24">
-        <v>60.71557195230021</v>
+        <v>66.66129034554501</v>
       </c>
       <c r="R24">
-        <v>60.71557195230021</v>
+        <v>599.951613109905</v>
       </c>
       <c r="S24">
-        <v>0.01226349864618531</v>
+        <v>0.0103797622701351</v>
       </c>
       <c r="T24">
-        <v>0.01226349864618531</v>
+        <v>0.01411509890323536</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N25">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O25">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P25">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q25">
-        <v>14.20164230245718</v>
+        <v>15.3616964660775</v>
       </c>
       <c r="R25">
-        <v>14.20164230245718</v>
+        <v>92.17017879646501</v>
       </c>
       <c r="S25">
-        <v>0.002868486873295337</v>
+        <v>0.002391954259470994</v>
       </c>
       <c r="T25">
-        <v>0.002868486873295337</v>
+        <v>0.002168493527164935</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N26">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O26">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P26">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q26">
-        <v>26.6684718538189</v>
+        <v>32.8123231683215</v>
       </c>
       <c r="R26">
-        <v>26.6684718538189</v>
+        <v>196.873939009929</v>
       </c>
       <c r="S26">
-        <v>0.00538657148337625</v>
+        <v>0.005109173738650631</v>
       </c>
       <c r="T26">
-        <v>0.00538657148337625</v>
+        <v>0.004631865403594821</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N27">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O27">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P27">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q27">
-        <v>4.361184910831081</v>
+        <v>5.856669387995</v>
       </c>
       <c r="R27">
-        <v>4.361184910831081</v>
+        <v>52.710024491955</v>
       </c>
       <c r="S27">
-        <v>0.0008808841542620855</v>
+        <v>0.0009119360820507793</v>
       </c>
       <c r="T27">
-        <v>0.0008808841542620855</v>
+        <v>0.001240112023433477</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N28">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O28">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P28">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q28">
-        <v>55.4998347559969</v>
+        <v>69.74607479625433</v>
       </c>
       <c r="R28">
-        <v>55.4998347559969</v>
+        <v>627.714673166289</v>
       </c>
       <c r="S28">
-        <v>0.01121000966487463</v>
+        <v>0.01086009094494768</v>
       </c>
       <c r="T28">
-        <v>0.01121000966487463</v>
+        <v>0.01476828214333198</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N29">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O29">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P29">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q29">
-        <v>83.4092251499371</v>
+        <v>102.029237125994</v>
       </c>
       <c r="R29">
-        <v>83.4092251499371</v>
+        <v>918.2631341339458</v>
       </c>
       <c r="S29">
-        <v>0.01684722529681889</v>
+        <v>0.01588686958325336</v>
       </c>
       <c r="T29">
-        <v>0.01684722529681889</v>
+        <v>0.02160403384917832</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N30">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O30">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P30">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q30">
-        <v>22.30585922903624</v>
+        <v>27.631845801763</v>
       </c>
       <c r="R30">
-        <v>22.30585922903624</v>
+        <v>248.686612215867</v>
       </c>
       <c r="S30">
-        <v>0.0045053989555133</v>
+        <v>0.00430252683409838</v>
       </c>
       <c r="T30">
-        <v>0.0045053989555133</v>
+        <v>0.005850865387529948</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N31">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O31">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P31">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q31">
-        <v>5.217439675419787</v>
+        <v>6.367593933508499</v>
       </c>
       <c r="R31">
-        <v>5.217439675419787</v>
+        <v>38.205563601051</v>
       </c>
       <c r="S31">
-        <v>0.001053832852737214</v>
+        <v>0.0009914916275992817</v>
       </c>
       <c r="T31">
-        <v>0.001053832852737214</v>
+        <v>0.0008988646702478221</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H32">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I32">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J32">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N32">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O32">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P32">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q32">
-        <v>362.8878075194444</v>
+        <v>524.5035401909137</v>
       </c>
       <c r="R32">
-        <v>362.8878075194444</v>
+        <v>2098.014160763655</v>
       </c>
       <c r="S32">
-        <v>0.07329708002632533</v>
+        <v>0.08166991711089457</v>
       </c>
       <c r="T32">
-        <v>0.07329708002632533</v>
+        <v>0.04936010960294292</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H33">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I33">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J33">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N33">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O33">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P33">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q33">
-        <v>59.34426386158849</v>
+        <v>93.61860213228749</v>
       </c>
       <c r="R33">
-        <v>59.34426386158849</v>
+        <v>561.711612793725</v>
       </c>
       <c r="S33">
-        <v>0.01198651805663971</v>
+        <v>0.01457725809324135</v>
       </c>
       <c r="T33">
-        <v>0.01198651805663971</v>
+        <v>0.01321542403824962</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H34">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I34">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J34">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N34">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O34">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P34">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q34">
-        <v>755.2068773453591</v>
+        <v>1114.887932725642</v>
       </c>
       <c r="R34">
-        <v>755.2068773453591</v>
+        <v>6689.327596353854</v>
       </c>
       <c r="S34">
-        <v>0.1525387675700513</v>
+        <v>0.1735980752780001</v>
       </c>
       <c r="T34">
-        <v>0.1525387675700513</v>
+        <v>0.1573802262639795</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H35">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I35">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J35">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N35">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O35">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P35">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q35">
-        <v>1134.980324612113</v>
+        <v>1630.932860225745</v>
       </c>
       <c r="R35">
-        <v>1134.980324612113</v>
+        <v>9785.597161354468</v>
       </c>
       <c r="S35">
-        <v>0.2292464556747093</v>
+        <v>0.2539509103400676</v>
       </c>
       <c r="T35">
-        <v>0.2292464556747093</v>
+        <v>0.2302263528282813</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H36">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I36">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J36">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N36">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O36">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P36">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q36">
-        <v>303.5241162235246</v>
+        <v>441.6938377294275</v>
       </c>
       <c r="R36">
-        <v>303.5241162235246</v>
+        <v>2650.163026376565</v>
       </c>
       <c r="S36">
-        <v>0.06130663796292822</v>
+        <v>0.06877570188110653</v>
       </c>
       <c r="T36">
-        <v>0.06130663796292822</v>
+        <v>0.06235055029371196</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H37">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I37">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J37">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N37">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O37">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P37">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q37">
-        <v>70.99564065973742</v>
+        <v>101.7857084818612</v>
       </c>
       <c r="R37">
-        <v>70.99564065973742</v>
+        <v>407.1428339274449</v>
       </c>
       <c r="S37">
-        <v>0.0143398952710148</v>
+        <v>0.01584894998375322</v>
       </c>
       <c r="T37">
-        <v>0.0143398952710148</v>
+        <v>0.009578874767650051</v>
       </c>
     </row>
   </sheetData>
